--- a/2_pipeline/main-full.xlsx
+++ b/2_pipeline/main-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawaiyuen/nlpworkshop/concept-creep-chi/2_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{482B76F2-4B8E-8E44-B312-21D9BFBF3C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A06198-2711-A84D-97FC-F5EE6D673645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{608A43C8-C741-F544-8AA0-444597D08144}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Year</t>
   </si>
@@ -562,6 +562,214 @@
   <si>
     <t>terrorism_sanc_vic</t>
   </si>
+  <si>
+    <r>
+      <t>偏见</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Semantic_Breadth</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang HK"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_extractall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>欺凌</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Semantic_Breadth</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang HK"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_extractall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>精神病</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Semantic_Breadth</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang HK"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_extractall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>创伤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Semantic_Breadth</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang HK"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_extractall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分裂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Semantic_Breadth</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang HK"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_extractall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>阴谋</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Semantic_Breadth</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang HK"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_extractall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>主权</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Semantic_Breadth</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang HK"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_extractall</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>恐怖主义</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>_Semantic_Breadth</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang HK"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>_extractall</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -962,15 +1170,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F666D6-B04B-9742-A38F-A86C10A5C72C}">
-  <dimension ref="A1:EM46"/>
+  <dimension ref="A1:EU46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="BM43" sqref="BM43"/>
+    <sheetView tabSelected="1" topLeftCell="EI1" workbookViewId="0">
+      <selection activeCell="EV7" sqref="EV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:143" ht="17">
+    <row r="1" spans="1:151" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1400,8 +1608,32 @@
       <c r="EM1" t="s">
         <v>142</v>
       </c>
+      <c r="EN1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="2" spans="1:143">
+    <row r="2" spans="1:151">
       <c r="A2">
         <v>1979</v>
       </c>
@@ -1831,8 +2063,32 @@
       <c r="EM2">
         <v>0.77315489999999998</v>
       </c>
+      <c r="EN2" s="2">
+        <v>1.2878857850313901</v>
+      </c>
+      <c r="EO2" s="2">
+        <v>1.32704913222055</v>
+      </c>
+      <c r="EP2" s="2">
+        <v>1.42939922043068</v>
+      </c>
+      <c r="EQ2" s="2">
+        <v>1.3167823424563201</v>
+      </c>
+      <c r="ER2" s="2">
+        <v>1.32910063103938</v>
+      </c>
+      <c r="ES2" s="2">
+        <v>1.3484116884096</v>
+      </c>
+      <c r="ET2" s="2">
+        <v>1.2453782157597999</v>
+      </c>
+      <c r="EU2" s="2">
+        <v>1.41667081830791</v>
+      </c>
     </row>
-    <row r="3" spans="1:143">
+    <row r="3" spans="1:151">
       <c r="A3">
         <v>1980</v>
       </c>
@@ -2262,8 +2518,32 @@
       <c r="EM3">
         <v>0.64365850000000002</v>
       </c>
+      <c r="EN3" s="2">
+        <v>1.2939742545860999</v>
+      </c>
+      <c r="EO3" s="2">
+        <v>1.3403942339742001</v>
+      </c>
+      <c r="EP3" s="2">
+        <v>1.53156986126221</v>
+      </c>
+      <c r="EQ3" s="2">
+        <v>1.3179722452460501</v>
+      </c>
+      <c r="ER3" s="2">
+        <v>1.3459126721939001</v>
+      </c>
+      <c r="ES3" s="2">
+        <v>1.37553736232608</v>
+      </c>
+      <c r="ET3" s="2">
+        <v>1.25221728873556</v>
+      </c>
+      <c r="EU3" s="2">
+        <v>1.3592538580697</v>
+      </c>
     </row>
-    <row r="4" spans="1:143">
+    <row r="4" spans="1:151">
       <c r="A4">
         <v>1981</v>
       </c>
@@ -2693,8 +2973,32 @@
       <c r="EM4">
         <v>0.67788910000000002</v>
       </c>
+      <c r="EN4" s="2">
+        <v>1.3668678338026801</v>
+      </c>
+      <c r="EO4" s="2">
+        <v>1.27852065702176</v>
+      </c>
+      <c r="EP4" s="2">
+        <v>1.39736329262095</v>
+      </c>
+      <c r="EQ4" s="2">
+        <v>1.3370193801161601</v>
+      </c>
+      <c r="ER4" s="2">
+        <v>1.34065504663385</v>
+      </c>
+      <c r="ES4" s="2">
+        <v>1.35425812923801</v>
+      </c>
+      <c r="ET4" s="2">
+        <v>1.24883310007493</v>
+      </c>
+      <c r="EU4" s="2">
+        <v>1.3264878994820199</v>
+      </c>
     </row>
-    <row r="5" spans="1:143">
+    <row r="5" spans="1:151">
       <c r="A5">
         <v>1982</v>
       </c>
@@ -3124,8 +3428,32 @@
       <c r="EM5">
         <v>0.72136169999999999</v>
       </c>
+      <c r="EN5" s="2">
+        <v>1.2826549093391699</v>
+      </c>
+      <c r="EO5" s="2">
+        <v>1.2783332279308099</v>
+      </c>
+      <c r="EP5" s="2">
+        <v>1.39039195752684</v>
+      </c>
+      <c r="EQ5" s="2">
+        <v>1.31346514214709</v>
+      </c>
+      <c r="ER5" s="2">
+        <v>1.32833338941551</v>
+      </c>
+      <c r="ES5" s="2">
+        <v>1.31646895823111</v>
+      </c>
+      <c r="ET5" s="2">
+        <v>1.25357012953516</v>
+      </c>
+      <c r="EU5" s="2">
+        <v>1.31346709590817</v>
+      </c>
     </row>
-    <row r="6" spans="1:143">
+    <row r="6" spans="1:151">
       <c r="A6">
         <v>1983</v>
       </c>
@@ -3555,8 +3883,32 @@
       <c r="EM6">
         <v>0.76183765999999997</v>
       </c>
+      <c r="EN6" s="2">
+        <v>1.3197457203605201</v>
+      </c>
+      <c r="EO6" s="2">
+        <v>1.2798789177049299</v>
+      </c>
+      <c r="EP6" s="2">
+        <v>1.4149176293582599</v>
+      </c>
+      <c r="EQ6" s="2">
+        <v>1.3110700966867599</v>
+      </c>
+      <c r="ER6" s="2">
+        <v>1.3373652259386399</v>
+      </c>
+      <c r="ES6" s="2">
+        <v>1.32274363631475</v>
+      </c>
+      <c r="ET6" s="2">
+        <v>1.27232549090299</v>
+      </c>
+      <c r="EU6" s="2">
+        <v>1.26519454425153</v>
+      </c>
     </row>
-    <row r="7" spans="1:143">
+    <row r="7" spans="1:151">
       <c r="A7">
         <v>1984</v>
       </c>
@@ -3986,8 +4338,32 @@
       <c r="EM7">
         <v>0.69819224000000002</v>
       </c>
+      <c r="EN7" s="2">
+        <v>1.3390769419378701</v>
+      </c>
+      <c r="EO7" s="2">
+        <v>1.3899926951136601</v>
+      </c>
+      <c r="EP7" s="2">
+        <v>1.4668513096006099</v>
+      </c>
+      <c r="EQ7" s="2">
+        <v>1.32636373489795</v>
+      </c>
+      <c r="ER7" s="2">
+        <v>1.3773340059691599</v>
+      </c>
+      <c r="ES7" s="2">
+        <v>1.33443743611554</v>
+      </c>
+      <c r="ET7" s="2">
+        <v>1.2724532548012899</v>
+      </c>
+      <c r="EU7" s="2">
+        <v>1.30607343966442</v>
+      </c>
     </row>
-    <row r="8" spans="1:143">
+    <row r="8" spans="1:151">
       <c r="A8">
         <v>1985</v>
       </c>
@@ -4417,8 +4793,32 @@
       <c r="EM8">
         <v>0.69664550000000003</v>
       </c>
+      <c r="EN8" s="2">
+        <v>1.32893976416673</v>
+      </c>
+      <c r="EO8" s="2">
+        <v>1.3229466105616901</v>
+      </c>
+      <c r="EP8" s="2">
+        <v>1.47505300477626</v>
+      </c>
+      <c r="EQ8" s="2">
+        <v>1.3719382423944999</v>
+      </c>
+      <c r="ER8" s="2">
+        <v>1.3792641481684</v>
+      </c>
+      <c r="ES8" s="2">
+        <v>1.3503356841229099</v>
+      </c>
+      <c r="ET8" s="2">
+        <v>1.2655963486842401</v>
+      </c>
+      <c r="EU8" s="2">
+        <v>1.3053453425322299</v>
+      </c>
     </row>
-    <row r="9" spans="1:143">
+    <row r="9" spans="1:151">
       <c r="A9">
         <v>1986</v>
       </c>
@@ -4848,8 +5248,32 @@
       <c r="EM9">
         <v>0.60902345000000002</v>
       </c>
+      <c r="EN9" s="2">
+        <v>1.36926316765411</v>
+      </c>
+      <c r="EO9" s="2">
+        <v>1.3222509580620101</v>
+      </c>
+      <c r="EP9" s="2">
+        <v>1.5243436647922699</v>
+      </c>
+      <c r="EQ9" s="2">
+        <v>1.4411764150053601</v>
+      </c>
+      <c r="ER9" s="2">
+        <v>1.3738239184438801</v>
+      </c>
+      <c r="ES9" s="2">
+        <v>1.36551346820735</v>
+      </c>
+      <c r="ET9" s="2">
+        <v>1.2842841151708699</v>
+      </c>
+      <c r="EU9" s="2">
+        <v>1.3011304651700599</v>
+      </c>
     </row>
-    <row r="10" spans="1:143">
+    <row r="10" spans="1:151">
       <c r="A10">
         <v>1987</v>
       </c>
@@ -5279,8 +5703,32 @@
       <c r="EM10">
         <v>0.67991959999999996</v>
       </c>
+      <c r="EN10" s="2">
+        <v>1.3202820395242201</v>
+      </c>
+      <c r="EO10" s="2">
+        <v>1.36852622708368</v>
+      </c>
+      <c r="EP10" s="2">
+        <v>1.4668885026082701</v>
+      </c>
+      <c r="EQ10" s="2">
+        <v>1.46647615046794</v>
+      </c>
+      <c r="ER10" s="2">
+        <v>1.36932563967831</v>
+      </c>
+      <c r="ES10" s="2">
+        <v>1.34949271808562</v>
+      </c>
+      <c r="ET10" s="2">
+        <v>1.2866668686204801</v>
+      </c>
+      <c r="EU10" s="2">
+        <v>1.3167384204129899</v>
+      </c>
     </row>
-    <row r="11" spans="1:143">
+    <row r="11" spans="1:151">
       <c r="A11">
         <v>1988</v>
       </c>
@@ -5710,8 +6158,32 @@
       <c r="EM11">
         <v>0.68153759999999997</v>
       </c>
+      <c r="EN11" s="2">
+        <v>1.30623390293959</v>
+      </c>
+      <c r="EO11" s="2">
+        <v>1.3650055231690399</v>
+      </c>
+      <c r="EP11" s="2">
+        <v>1.4320375198047499</v>
+      </c>
+      <c r="EQ11" s="2">
+        <v>1.4177002117692501</v>
+      </c>
+      <c r="ER11" s="2">
+        <v>1.35810480723409</v>
+      </c>
+      <c r="ES11" s="2">
+        <v>1.3841397464013401</v>
+      </c>
+      <c r="ET11" s="2">
+        <v>1.30344210878789</v>
+      </c>
+      <c r="EU11" s="2">
+        <v>1.3110779857468899</v>
+      </c>
     </row>
-    <row r="12" spans="1:143">
+    <row r="12" spans="1:151">
       <c r="A12">
         <v>1989</v>
       </c>
@@ -6141,8 +6613,32 @@
       <c r="EM12">
         <v>0.61032960000000003</v>
       </c>
+      <c r="EN12" s="2">
+        <v>1.33644255155358</v>
+      </c>
+      <c r="EO12" s="2">
+        <v>1.3031454669732201</v>
+      </c>
+      <c r="EP12" s="2">
+        <v>1.44513344206077</v>
+      </c>
+      <c r="EQ12" s="2">
+        <v>1.41498123404983</v>
+      </c>
+      <c r="ER12" s="2">
+        <v>1.32668656921309</v>
+      </c>
+      <c r="ES12" s="2">
+        <v>1.34706962133354</v>
+      </c>
+      <c r="ET12" s="2">
+        <v>1.29234616930249</v>
+      </c>
+      <c r="EU12" s="2">
+        <v>1.28965807013307</v>
+      </c>
     </row>
-    <row r="13" spans="1:143">
+    <row r="13" spans="1:151">
       <c r="A13">
         <v>1990</v>
       </c>
@@ -6572,8 +7068,32 @@
       <c r="EM13">
         <v>0.72131100000000004</v>
       </c>
+      <c r="EN13" s="2">
+        <v>1.35707184922258</v>
+      </c>
+      <c r="EO13" s="2">
+        <v>1.2694133875422899</v>
+      </c>
+      <c r="EP13" s="2">
+        <v>1.4663405454940299</v>
+      </c>
+      <c r="EQ13" s="2">
+        <v>1.3626844822962101</v>
+      </c>
+      <c r="ER13" s="2">
+        <v>1.35595968817774</v>
+      </c>
+      <c r="ES13" s="2">
+        <v>1.3516539965002601</v>
+      </c>
+      <c r="ET13" s="2">
+        <v>1.29448543342637</v>
+      </c>
+      <c r="EU13" s="2">
+        <v>1.2698751599433999</v>
+      </c>
     </row>
-    <row r="14" spans="1:143">
+    <row r="14" spans="1:151">
       <c r="A14">
         <v>1991</v>
       </c>
@@ -7003,8 +7523,32 @@
       <c r="EM14">
         <v>0.71242439999999996</v>
       </c>
+      <c r="EN14" s="2">
+        <v>1.3051200155084599</v>
+      </c>
+      <c r="EO14" s="2">
+        <v>1.24854480950802</v>
+      </c>
+      <c r="EP14" s="2">
+        <v>1.4707821151620599</v>
+      </c>
+      <c r="EQ14" s="2">
+        <v>1.3876384239799899</v>
+      </c>
+      <c r="ER14" s="2">
+        <v>1.3396848231801699</v>
+      </c>
+      <c r="ES14" s="2">
+        <v>1.3306158252178499</v>
+      </c>
+      <c r="ET14" s="2">
+        <v>1.2820481940600299</v>
+      </c>
+      <c r="EU14" s="2">
+        <v>1.29343745253846</v>
+      </c>
     </row>
-    <row r="15" spans="1:143">
+    <row r="15" spans="1:151">
       <c r="A15">
         <v>1992</v>
       </c>
@@ -7434,8 +7978,32 @@
       <c r="EM15">
         <v>0.70868593000000002</v>
       </c>
+      <c r="EN15" s="2">
+        <v>1.36337924517692</v>
+      </c>
+      <c r="EO15" s="2">
+        <v>1.35580080029765</v>
+      </c>
+      <c r="EP15" s="2">
+        <v>1.5042598329062</v>
+      </c>
+      <c r="EQ15" s="2">
+        <v>1.5017884362973599</v>
+      </c>
+      <c r="ER15" s="2">
+        <v>1.3358110184159899</v>
+      </c>
+      <c r="ES15" s="2">
+        <v>1.3748392818247399</v>
+      </c>
+      <c r="ET15" s="2">
+        <v>1.2811613065706899</v>
+      </c>
+      <c r="EU15" s="2">
+        <v>1.2548819680412699</v>
+      </c>
     </row>
-    <row r="16" spans="1:143">
+    <row r="16" spans="1:151">
       <c r="A16">
         <v>1993</v>
       </c>
@@ -7865,8 +8433,32 @@
       <c r="EM16">
         <v>0.71812399999999998</v>
       </c>
+      <c r="EN16" s="2">
+        <v>1.32687239079602</v>
+      </c>
+      <c r="EO16" s="2">
+        <v>1.25818752534791</v>
+      </c>
+      <c r="EP16" s="2">
+        <v>1.46222565537187</v>
+      </c>
+      <c r="EQ16" s="2">
+        <v>1.3951834234684299</v>
+      </c>
+      <c r="ER16" s="2">
+        <v>1.3368466840581199</v>
+      </c>
+      <c r="ES16" s="2">
+        <v>1.3682840298263601</v>
+      </c>
+      <c r="ET16" s="2">
+        <v>1.2936837016844001</v>
+      </c>
+      <c r="EU16" s="2">
+        <v>1.3062792628247999</v>
+      </c>
     </row>
-    <row r="17" spans="1:143">
+    <row r="17" spans="1:151">
       <c r="A17">
         <v>1994</v>
       </c>
@@ -8296,8 +8888,32 @@
       <c r="EM17">
         <v>0.66708886999999994</v>
       </c>
+      <c r="EN17" s="2">
+        <v>1.29969452884995</v>
+      </c>
+      <c r="EO17" s="2">
+        <v>1.28878389130753</v>
+      </c>
+      <c r="EP17" s="2">
+        <v>1.5336890290585401</v>
+      </c>
+      <c r="EQ17" s="2">
+        <v>1.3645563313272899</v>
+      </c>
+      <c r="ER17" s="2">
+        <v>1.33904519971606</v>
+      </c>
+      <c r="ES17" s="2">
+        <v>1.35013008626011</v>
+      </c>
+      <c r="ET17" s="2">
+        <v>1.2937246026823701</v>
+      </c>
+      <c r="EU17" s="2">
+        <v>1.3203569553276999</v>
+      </c>
     </row>
-    <row r="18" spans="1:143">
+    <row r="18" spans="1:151">
       <c r="A18">
         <v>1995</v>
       </c>
@@ -8727,8 +9343,32 @@
       <c r="EM18">
         <v>0.65244919999999995</v>
       </c>
+      <c r="EN18" s="2">
+        <v>1.3184738623800401</v>
+      </c>
+      <c r="EO18" s="2">
+        <v>1.26363527151766</v>
+      </c>
+      <c r="EP18" s="2">
+        <v>1.5331061498541001</v>
+      </c>
+      <c r="EQ18" s="2">
+        <v>1.3616159268299699</v>
+      </c>
+      <c r="ER18" s="2">
+        <v>1.32980203587003</v>
+      </c>
+      <c r="ES18" s="2">
+        <v>1.3892728516791299</v>
+      </c>
+      <c r="ET18" s="2">
+        <v>1.27807146473469</v>
+      </c>
+      <c r="EU18" s="2">
+        <v>1.33452012381438</v>
+      </c>
     </row>
-    <row r="19" spans="1:143">
+    <row r="19" spans="1:151">
       <c r="A19">
         <v>1996</v>
       </c>
@@ -9158,8 +9798,32 @@
       <c r="EM19">
         <v>0.6479627</v>
       </c>
+      <c r="EN19" s="2">
+        <v>1.3320979872216501</v>
+      </c>
+      <c r="EO19" s="2">
+        <v>1.2703115869066799</v>
+      </c>
+      <c r="EP19" s="2">
+        <v>1.42262477633187</v>
+      </c>
+      <c r="EQ19" s="2">
+        <v>1.4256950673217299</v>
+      </c>
+      <c r="ER19" s="2">
+        <v>1.30976377012252</v>
+      </c>
+      <c r="ES19" s="2">
+        <v>1.4256810137373299</v>
+      </c>
+      <c r="ET19" s="2">
+        <v>1.2769841731963101</v>
+      </c>
+      <c r="EU19" s="2">
+        <v>1.32909747228356</v>
+      </c>
     </row>
-    <row r="20" spans="1:143">
+    <row r="20" spans="1:151">
       <c r="A20">
         <v>1997</v>
       </c>
@@ -9589,8 +10253,32 @@
       <c r="EM20">
         <v>0.64354730000000004</v>
       </c>
+      <c r="EN20" s="2">
+        <v>1.3259045070215101</v>
+      </c>
+      <c r="EO20" s="2">
+        <v>1.2743023309246899</v>
+      </c>
+      <c r="EP20" s="2">
+        <v>1.43434164848079</v>
+      </c>
+      <c r="EQ20" s="2">
+        <v>1.4078657032402999</v>
+      </c>
+      <c r="ER20" s="2">
+        <v>1.32516921024739</v>
+      </c>
+      <c r="ES20" s="2">
+        <v>1.38138860331611</v>
+      </c>
+      <c r="ET20" s="2">
+        <v>1.2855887486954201</v>
+      </c>
+      <c r="EU20" s="2">
+        <v>1.2836011184943601</v>
+      </c>
     </row>
-    <row r="21" spans="1:143">
+    <row r="21" spans="1:151">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -10020,8 +10708,32 @@
       <c r="EM21">
         <v>0.62859213000000003</v>
       </c>
+      <c r="EN21" s="2">
+        <v>1.3343938142571901</v>
+      </c>
+      <c r="EO21" s="2">
+        <v>1.3071953723526599</v>
+      </c>
+      <c r="EP21" s="2">
+        <v>1.47361773370752</v>
+      </c>
+      <c r="EQ21" s="2">
+        <v>1.46192572097838</v>
+      </c>
+      <c r="ER21" s="2">
+        <v>1.3372365653173901</v>
+      </c>
+      <c r="ES21" s="2">
+        <v>1.3470836820701799</v>
+      </c>
+      <c r="ET21" s="2">
+        <v>1.28109556581094</v>
+      </c>
+      <c r="EU21" s="2">
+        <v>1.27341839175939</v>
+      </c>
     </row>
-    <row r="22" spans="1:143">
+    <row r="22" spans="1:151">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -10451,8 +11163,32 @@
       <c r="EM22">
         <v>0.64267355000000004</v>
       </c>
+      <c r="EN22" s="2">
+        <v>1.340687722313</v>
+      </c>
+      <c r="EO22" s="2">
+        <v>1.2813221650911599</v>
+      </c>
+      <c r="EP22" s="2">
+        <v>1.49382541708953</v>
+      </c>
+      <c r="EQ22" s="2">
+        <v>1.44738728261864</v>
+      </c>
+      <c r="ER22" s="2">
+        <v>1.31733963164904</v>
+      </c>
+      <c r="ES22" s="2">
+        <v>1.40623912194544</v>
+      </c>
+      <c r="ET22" s="2">
+        <v>1.29802189796721</v>
+      </c>
+      <c r="EU22" s="2">
+        <v>1.3342866291042701</v>
+      </c>
     </row>
-    <row r="23" spans="1:143">
+    <row r="23" spans="1:151">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -10882,8 +11618,32 @@
       <c r="EM23">
         <v>0.55766179999999999</v>
       </c>
+      <c r="EN23" s="2">
+        <v>1.3307200993177</v>
+      </c>
+      <c r="EO23" s="2">
+        <v>1.25561037767289</v>
+      </c>
+      <c r="EP23" s="2">
+        <v>1.4655883806902601</v>
+      </c>
+      <c r="EQ23" s="2">
+        <v>1.4373103204440301</v>
+      </c>
+      <c r="ER23" s="2">
+        <v>1.31073361934151</v>
+      </c>
+      <c r="ES23" s="2">
+        <v>1.3704750684902001</v>
+      </c>
+      <c r="ET23" s="2">
+        <v>1.28803834906887</v>
+      </c>
+      <c r="EU23" s="2">
+        <v>1.2758479846355699</v>
+      </c>
     </row>
-    <row r="24" spans="1:143">
+    <row r="24" spans="1:151">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -11313,8 +12073,32 @@
       <c r="EM24">
         <v>0.48841166000000003</v>
       </c>
+      <c r="EN24" s="2">
+        <v>1.35022755270564</v>
+      </c>
+      <c r="EO24" s="2">
+        <v>1.28399809373471</v>
+      </c>
+      <c r="EP24" s="2">
+        <v>1.5109841921945</v>
+      </c>
+      <c r="EQ24" s="2">
+        <v>1.4215572651342601</v>
+      </c>
+      <c r="ER24" s="2">
+        <v>1.3208386560102401</v>
+      </c>
+      <c r="ES24" s="2">
+        <v>1.38859685075553</v>
+      </c>
+      <c r="ET24" s="2">
+        <v>1.29329198120731</v>
+      </c>
+      <c r="EU24" s="2">
+        <v>1.2903265898607801</v>
+      </c>
     </row>
-    <row r="25" spans="1:143">
+    <row r="25" spans="1:151">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -11742,8 +12526,30 @@
       <c r="EM25">
         <v>0.49976264999999997</v>
       </c>
+      <c r="EN25" s="2">
+        <v>1.33422497891169</v>
+      </c>
+      <c r="EO25" s="3"/>
+      <c r="EP25" s="2">
+        <v>1.44890138555403</v>
+      </c>
+      <c r="EQ25" s="2">
+        <v>1.4247125899934301</v>
+      </c>
+      <c r="ER25" s="2">
+        <v>1.3074349675007999</v>
+      </c>
+      <c r="ES25" s="2">
+        <v>1.4396178733418601</v>
+      </c>
+      <c r="ET25" s="2">
+        <v>1.2763373659252499</v>
+      </c>
+      <c r="EU25" s="2">
+        <v>1.28992251876484</v>
+      </c>
     </row>
-    <row r="26" spans="1:143">
+    <row r="26" spans="1:151">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -12171,8 +12977,30 @@
       <c r="EM26">
         <v>0.51291299999999995</v>
       </c>
+      <c r="EN26" s="2">
+        <v>1.2926546463737101</v>
+      </c>
+      <c r="EO26" s="3"/>
+      <c r="EP26" s="2">
+        <v>1.5727042722223501</v>
+      </c>
+      <c r="EQ26" s="2">
+        <v>1.3761881743508</v>
+      </c>
+      <c r="ER26" s="2">
+        <v>1.33506246511093</v>
+      </c>
+      <c r="ES26" s="2">
+        <v>1.40762142896277</v>
+      </c>
+      <c r="ET26" s="2">
+        <v>1.29092467858875</v>
+      </c>
+      <c r="EU26" s="2">
+        <v>1.30192660462891</v>
+      </c>
     </row>
-    <row r="27" spans="1:143">
+    <row r="27" spans="1:151">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -12602,8 +13430,32 @@
       <c r="EM27">
         <v>0.47069290000000003</v>
       </c>
+      <c r="EN27" s="2">
+        <v>1.41868671400128</v>
+      </c>
+      <c r="EO27" s="2">
+        <v>1.2748226862782801</v>
+      </c>
+      <c r="EP27" s="2">
+        <v>1.61879019062633</v>
+      </c>
+      <c r="EQ27" s="2">
+        <v>1.56414569628666</v>
+      </c>
+      <c r="ER27" s="2">
+        <v>1.39205170861631</v>
+      </c>
+      <c r="ES27" s="2">
+        <v>1.48065487576806</v>
+      </c>
+      <c r="ET27" s="2">
+        <v>1.38801922436065</v>
+      </c>
+      <c r="EU27" s="2">
+        <v>1.4071354949950801</v>
+      </c>
     </row>
-    <row r="28" spans="1:143">
+    <row r="28" spans="1:151">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -13033,8 +13885,32 @@
       <c r="EM28">
         <v>0.56877476000000005</v>
       </c>
+      <c r="EN28" s="2">
+        <v>1.3540479475465499</v>
+      </c>
+      <c r="EO28" s="2">
+        <v>1.28415504573744</v>
+      </c>
+      <c r="EP28" s="2">
+        <v>1.4605763931166</v>
+      </c>
+      <c r="EQ28" s="2">
+        <v>1.41979641412297</v>
+      </c>
+      <c r="ER28" s="2">
+        <v>1.2774420361571499</v>
+      </c>
+      <c r="ES28" s="2">
+        <v>1.40719025794354</v>
+      </c>
+      <c r="ET28" s="2">
+        <v>1.2934481223888199</v>
+      </c>
+      <c r="EU28" s="2">
+        <v>1.2935125441037201</v>
+      </c>
     </row>
-    <row r="29" spans="1:143">
+    <row r="29" spans="1:151">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -13464,8 +14340,32 @@
       <c r="EM29">
         <v>0.52045613999999996</v>
       </c>
+      <c r="EN29" s="2">
+        <v>1.3418173509137901</v>
+      </c>
+      <c r="EO29" s="2">
+        <v>1.34742101140165</v>
+      </c>
+      <c r="EP29" s="2">
+        <v>1.50687051175815</v>
+      </c>
+      <c r="EQ29" s="2">
+        <v>1.43447495617841</v>
+      </c>
+      <c r="ER29" s="2">
+        <v>1.3005772249743299</v>
+      </c>
+      <c r="ES29" s="2">
+        <v>1.42952917486034</v>
+      </c>
+      <c r="ET29" s="2">
+        <v>1.3157125122437201</v>
+      </c>
+      <c r="EU29" s="2">
+        <v>1.30808910578599</v>
+      </c>
     </row>
-    <row r="30" spans="1:143">
+    <row r="30" spans="1:151">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -13895,8 +14795,32 @@
       <c r="EM30">
         <v>0.57936209999999999</v>
       </c>
+      <c r="EN30" s="2">
+        <v>1.36018658565376</v>
+      </c>
+      <c r="EO30" s="2">
+        <v>1.22220682675716</v>
+      </c>
+      <c r="EP30" s="2">
+        <v>1.4386103222070099</v>
+      </c>
+      <c r="EQ30" s="2">
+        <v>1.4378383937417101</v>
+      </c>
+      <c r="ER30" s="2">
+        <v>1.3236748470933399</v>
+      </c>
+      <c r="ES30" s="2">
+        <v>1.4171333156683199</v>
+      </c>
+      <c r="ET30" s="2">
+        <v>1.3162322366441599</v>
+      </c>
+      <c r="EU30" s="2">
+        <v>1.32933220873345</v>
+      </c>
     </row>
-    <row r="31" spans="1:143">
+    <row r="31" spans="1:151">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -14326,8 +15250,32 @@
       <c r="EM31">
         <v>0.52189339999999995</v>
       </c>
+      <c r="EN31" s="2">
+        <v>1.36329194565429</v>
+      </c>
+      <c r="EO31" s="2">
+        <v>1.35816208719552</v>
+      </c>
+      <c r="EP31" s="2">
+        <v>1.4717173721468</v>
+      </c>
+      <c r="EQ31" s="2">
+        <v>1.41135002889205</v>
+      </c>
+      <c r="ER31" s="2">
+        <v>1.3516735980303201</v>
+      </c>
+      <c r="ES31" s="2">
+        <v>1.3780059868607699</v>
+      </c>
+      <c r="ET31" s="2">
+        <v>1.32829468776847</v>
+      </c>
+      <c r="EU31" s="2">
+        <v>1.3073610014644399</v>
+      </c>
     </row>
-    <row r="32" spans="1:143">
+    <row r="32" spans="1:151">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -14757,8 +15705,32 @@
       <c r="EM32">
         <v>0.56085014</v>
       </c>
+      <c r="EN32" s="2">
+        <v>1.3703126489329001</v>
+      </c>
+      <c r="EO32" s="2">
+        <v>1.42357405569898</v>
+      </c>
+      <c r="EP32" s="2">
+        <v>1.4762409829208101</v>
+      </c>
+      <c r="EQ32" s="2">
+        <v>1.4767931159810299</v>
+      </c>
+      <c r="ER32" s="2">
+        <v>1.36201077189954</v>
+      </c>
+      <c r="ES32" s="2">
+        <v>1.4120947213234101</v>
+      </c>
+      <c r="ET32" s="2">
+        <v>1.35678387245733</v>
+      </c>
+      <c r="EU32" s="2">
+        <v>1.3177939798554601</v>
+      </c>
     </row>
-    <row r="33" spans="1:143">
+    <row r="33" spans="1:151">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -15188,8 +16160,32 @@
       <c r="EM33">
         <v>0.48847499999999999</v>
       </c>
+      <c r="EN33" s="2">
+        <v>1.35931850382418</v>
+      </c>
+      <c r="EO33" s="2">
+        <v>1.36748416067492</v>
+      </c>
+      <c r="EP33" s="2">
+        <v>1.5337002453139199</v>
+      </c>
+      <c r="EQ33" s="2">
+        <v>1.4845619753507699</v>
+      </c>
+      <c r="ER33" s="2">
+        <v>1.37200107095993</v>
+      </c>
+      <c r="ES33" s="2">
+        <v>1.4434893291831701</v>
+      </c>
+      <c r="ET33" s="2">
+        <v>1.3662801005091001</v>
+      </c>
+      <c r="EU33" s="2">
+        <v>1.3407383995496001</v>
+      </c>
     </row>
-    <row r="34" spans="1:143">
+    <row r="34" spans="1:151">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -15619,8 +16615,32 @@
       <c r="EM34">
         <v>0.52282523999999997</v>
       </c>
+      <c r="EN34" s="2">
+        <v>1.35498579815163</v>
+      </c>
+      <c r="EO34" s="2">
+        <v>1.4321914278424099</v>
+      </c>
+      <c r="EP34" s="2">
+        <v>1.4331688247210199</v>
+      </c>
+      <c r="EQ34" s="2">
+        <v>1.45505169282769</v>
+      </c>
+      <c r="ER34" s="2">
+        <v>1.3889201084431499</v>
+      </c>
+      <c r="ES34" s="2">
+        <v>1.39060919452961</v>
+      </c>
+      <c r="ET34" s="2">
+        <v>1.3604668521738801</v>
+      </c>
+      <c r="EU34" s="2">
+        <v>1.33237875346641</v>
+      </c>
     </row>
-    <row r="35" spans="1:143">
+    <row r="35" spans="1:151">
       <c r="A35">
         <v>2012</v>
       </c>
@@ -16050,8 +17070,32 @@
       <c r="EM35">
         <v>0.55038609999999999</v>
       </c>
+      <c r="EN35" s="2">
+        <v>1.35540965652922</v>
+      </c>
+      <c r="EO35" s="2">
+        <v>1.4257942983579599</v>
+      </c>
+      <c r="EP35" s="2">
+        <v>1.49774747108279</v>
+      </c>
+      <c r="EQ35" s="2">
+        <v>1.49394832716807</v>
+      </c>
+      <c r="ER35" s="2">
+        <v>1.42028091350561</v>
+      </c>
+      <c r="ES35" s="2">
+        <v>1.4255385551086299</v>
+      </c>
+      <c r="ET35" s="2">
+        <v>1.3662685290199901</v>
+      </c>
+      <c r="EU35" s="2">
+        <v>1.34235414858262</v>
+      </c>
     </row>
-    <row r="36" spans="1:143">
+    <row r="36" spans="1:151">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -16481,8 +17525,32 @@
       <c r="EM36">
         <v>0.5784395</v>
       </c>
+      <c r="EN36" s="2">
+        <v>1.34905920876047</v>
+      </c>
+      <c r="EO36" s="2">
+        <v>1.3005390148154301</v>
+      </c>
+      <c r="EP36" s="2">
+        <v>1.4982843672645401</v>
+      </c>
+      <c r="EQ36" s="2">
+        <v>1.4767749172080999</v>
+      </c>
+      <c r="ER36" s="2">
+        <v>1.3658087210204899</v>
+      </c>
+      <c r="ES36" s="2">
+        <v>1.3874744353869699</v>
+      </c>
+      <c r="ET36" s="2">
+        <v>1.3675400051450199</v>
+      </c>
+      <c r="EU36" s="2">
+        <v>1.3283094109553699</v>
+      </c>
     </row>
-    <row r="37" spans="1:143">
+    <row r="37" spans="1:151">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -16912,8 +17980,32 @@
       <c r="EM37">
         <v>0.49188261999999999</v>
       </c>
+      <c r="EN37" s="2">
+        <v>1.35743682461773</v>
+      </c>
+      <c r="EO37" s="2">
+        <v>1.3738118813340501</v>
+      </c>
+      <c r="EP37" s="2">
+        <v>1.39101204046908</v>
+      </c>
+      <c r="EQ37" s="2">
+        <v>1.4508871467859099</v>
+      </c>
+      <c r="ER37" s="2">
+        <v>1.3828244648228301</v>
+      </c>
+      <c r="ES37" s="2">
+        <v>1.4170302597143101</v>
+      </c>
+      <c r="ET37" s="2">
+        <v>1.3440742526372</v>
+      </c>
+      <c r="EU37" s="2">
+        <v>1.3455125364754199</v>
+      </c>
     </row>
-    <row r="38" spans="1:143">
+    <row r="38" spans="1:151">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -17343,8 +18435,32 @@
       <c r="EM38">
         <v>0.46072226999999999</v>
       </c>
+      <c r="EN38" s="2">
+        <v>1.3654782375994301</v>
+      </c>
+      <c r="EO38" s="2">
+        <v>1.4124682541807301</v>
+      </c>
+      <c r="EP38" s="2">
+        <v>1.3959871108539501</v>
+      </c>
+      <c r="EQ38" s="2">
+        <v>1.42844021309258</v>
+      </c>
+      <c r="ER38" s="2">
+        <v>1.3856009038457999</v>
+      </c>
+      <c r="ES38" s="2">
+        <v>1.4029336212807</v>
+      </c>
+      <c r="ET38" s="2">
+        <v>1.35292371542245</v>
+      </c>
+      <c r="EU38" s="2">
+        <v>1.35586303607905</v>
+      </c>
     </row>
-    <row r="39" spans="1:143">
+    <row r="39" spans="1:151">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -17774,8 +18890,32 @@
       <c r="EM39">
         <v>0.49451885000000001</v>
       </c>
+      <c r="EN39" s="2">
+        <v>1.3823293015845799</v>
+      </c>
+      <c r="EO39" s="2">
+        <v>1.37129962498785</v>
+      </c>
+      <c r="EP39" s="2">
+        <v>1.4847989940631801</v>
+      </c>
+      <c r="EQ39" s="2">
+        <v>1.47046899442496</v>
+      </c>
+      <c r="ER39" s="2">
+        <v>1.3963825028375501</v>
+      </c>
+      <c r="ES39" s="2">
+        <v>1.4076041864967199</v>
+      </c>
+      <c r="ET39" s="2">
+        <v>1.3395375337544799</v>
+      </c>
+      <c r="EU39" s="2">
+        <v>1.35052655931607</v>
+      </c>
     </row>
-    <row r="40" spans="1:143">
+    <row r="40" spans="1:151">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -18205,8 +19345,32 @@
       <c r="EM40">
         <v>0.52409209999999995</v>
       </c>
+      <c r="EN40" s="2">
+        <v>1.3252399710357801</v>
+      </c>
+      <c r="EO40" s="2">
+        <v>1.36311726939366</v>
+      </c>
+      <c r="EP40" s="2">
+        <v>1.4183353047914899</v>
+      </c>
+      <c r="EQ40" s="2">
+        <v>1.4589342725397101</v>
+      </c>
+      <c r="ER40" s="2">
+        <v>1.36126968630915</v>
+      </c>
+      <c r="ES40" s="2">
+        <v>1.4185249002154099</v>
+      </c>
+      <c r="ET40" s="2">
+        <v>1.3419363755818601</v>
+      </c>
+      <c r="EU40" s="2">
+        <v>1.33485936737058</v>
+      </c>
     </row>
-    <row r="41" spans="1:143">
+    <row r="41" spans="1:151">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -18636,8 +19800,32 @@
       <c r="EM41">
         <v>0.49158036999999999</v>
       </c>
+      <c r="EN41" s="2">
+        <v>1.3415275513763201</v>
+      </c>
+      <c r="EO41" s="2">
+        <v>1.4158119611236899</v>
+      </c>
+      <c r="EP41" s="2">
+        <v>1.5375893929418301</v>
+      </c>
+      <c r="EQ41" s="2">
+        <v>1.4400206957930399</v>
+      </c>
+      <c r="ER41" s="2">
+        <v>1.37208634750361</v>
+      </c>
+      <c r="ES41" s="2">
+        <v>1.39833427251756</v>
+      </c>
+      <c r="ET41" s="2">
+        <v>1.33127150384054</v>
+      </c>
+      <c r="EU41" s="2">
+        <v>1.3376076911013499</v>
+      </c>
     </row>
-    <row r="42" spans="1:143">
+    <row r="42" spans="1:151">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -19067,8 +20255,32 @@
       <c r="EM42">
         <v>0.51408403999999996</v>
       </c>
+      <c r="EN42" s="2">
+        <v>1.3694349514937201</v>
+      </c>
+      <c r="EO42" s="2">
+        <v>1.45900354567126</v>
+      </c>
+      <c r="EP42" s="2">
+        <v>1.4886425586044001</v>
+      </c>
+      <c r="EQ42" s="2">
+        <v>1.46036166226135</v>
+      </c>
+      <c r="ER42" s="2">
+        <v>1.34730133644276</v>
+      </c>
+      <c r="ES42" s="2">
+        <v>1.3968891827450101</v>
+      </c>
+      <c r="ET42" s="2">
+        <v>1.3335423267259801</v>
+      </c>
+      <c r="EU42" s="2">
+        <v>1.3375384825364101</v>
+      </c>
     </row>
-    <row r="43" spans="1:143">
+    <row r="43" spans="1:151">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -19498,8 +20710,32 @@
       <c r="EM43">
         <v>0.53016390000000002</v>
       </c>
+      <c r="EN43" s="2">
+        <v>1.3129752401273</v>
+      </c>
+      <c r="EO43" s="2">
+        <v>1.4325455786040899</v>
+      </c>
+      <c r="EP43" s="2">
+        <v>1.3663638883884801</v>
+      </c>
+      <c r="EQ43" s="2">
+        <v>1.6079452962527001</v>
+      </c>
+      <c r="ER43" s="2">
+        <v>1.3210868159485301</v>
+      </c>
+      <c r="ES43" s="2">
+        <v>1.50044815216604</v>
+      </c>
+      <c r="ET43" s="2">
+        <v>1.3241958654396899</v>
+      </c>
+      <c r="EU43" s="2">
+        <v>1.32895692284806</v>
+      </c>
     </row>
-    <row r="44" spans="1:143">
+    <row r="44" spans="1:151">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -19927,8 +21163,30 @@
       <c r="EM44">
         <v>0.56143719999999997</v>
       </c>
+      <c r="EN44" s="2">
+        <v>1.32372132194323</v>
+      </c>
+      <c r="EO44" s="2">
+        <v>1.4587659383364799</v>
+      </c>
+      <c r="EP44" s="3"/>
+      <c r="EQ44" s="2">
+        <v>1.52551307526183</v>
+      </c>
+      <c r="ER44" s="2">
+        <v>1.34732481529633</v>
+      </c>
+      <c r="ES44" s="2">
+        <v>1.4344191527930401</v>
+      </c>
+      <c r="ET44" s="2">
+        <v>1.3193934658738999</v>
+      </c>
+      <c r="EU44" s="2">
+        <v>1.3341830685227001</v>
+      </c>
     </row>
-    <row r="45" spans="1:143">
+    <row r="45" spans="1:151">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -20311,8 +21569,30 @@
       <c r="EM45">
         <v>0.58560540000000005</v>
       </c>
+      <c r="EN45" s="2">
+        <v>1.3409048149667899</v>
+      </c>
+      <c r="EO45" s="2">
+        <v>1.4234903513677399</v>
+      </c>
+      <c r="EP45" s="3"/>
+      <c r="EQ45" s="2">
+        <v>1.46896352154451</v>
+      </c>
+      <c r="ER45" s="2">
+        <v>1.3250611994741499</v>
+      </c>
+      <c r="ES45" s="2">
+        <v>1.3314351546574099</v>
+      </c>
+      <c r="ET45" s="2">
+        <v>1.27577997462617</v>
+      </c>
+      <c r="EU45" s="2">
+        <v>1.31230183633068</v>
+      </c>
     </row>
-    <row r="46" spans="1:143">
+    <row r="46" spans="1:151">
       <c r="A46">
         <v>2023</v>
       </c>
@@ -20737,6 +22017,26 @@
       </c>
       <c r="EM46">
         <v>0.55071959999999998</v>
+      </c>
+      <c r="EN46" s="2">
+        <v>1.35431923953738</v>
+      </c>
+      <c r="EO46" s="2">
+        <v>1.47226703036585</v>
+      </c>
+      <c r="EP46" s="3"/>
+      <c r="EQ46" s="2">
+        <v>1.47298675233298</v>
+      </c>
+      <c r="ER46" s="2">
+        <v>1.3744990090577101</v>
+      </c>
+      <c r="ES46" s="3"/>
+      <c r="ET46" s="2">
+        <v>1.2967035464080101</v>
+      </c>
+      <c r="EU46" s="2">
+        <v>1.35085832788968</v>
       </c>
     </row>
   </sheetData>
